--- a/2022/Price List/Symphony Price List  06.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  06.07.2022.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Updated" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
   <si>
     <t>Model Name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>D47</t>
   </si>
   <si>
-    <t>D74</t>
-  </si>
-  <si>
     <t>D82</t>
   </si>
   <si>
@@ -388,10 +385,10 @@
     <t>L136</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (06.07.2022)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Komola Super Market, Alaipur, Natore</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (16.07.2022)</t>
   </si>
 </sst>
 </file>
@@ -696,13 +693,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -720,7 +717,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="12582525"/>
+          <a:off x="371476" y="12363450"/>
           <a:ext cx="5726074" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
@@ -3010,11 +3007,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3031,7 +3028,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3062,16 +3059,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3085,21 +3082,21 @@
         <v>1030</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10">
         <v>1010</v>
@@ -3108,16 +3105,16 @@
         <v>1070</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3131,21 +3128,21 @@
         <v>1050</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="19">
         <v>1000</v>
@@ -3154,16 +3151,16 @@
         <v>1070</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,16 +3174,16 @@
         <v>1250</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3200,21 +3197,21 @@
         <v>1170</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10">
         <v>1130</v>
@@ -3223,16 +3220,16 @@
         <v>1200</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3246,16 +3243,16 @@
         <v>1320</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3269,21 +3266,21 @@
         <v>1350</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="10">
         <v>1270</v>
@@ -3292,21 +3289,21 @@
         <v>1350</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="10">
         <v>1500</v>
@@ -3315,39 +3312,39 @@
         <v>1600</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B15" s="10">
-        <v>1130</v>
+        <v>1190</v>
       </c>
       <c r="C15" s="10">
-        <v>1199</v>
+        <v>1260</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3361,108 +3358,108 @@
         <v>1260</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1270</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1190</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1260</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="21">
-        <v>1200</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1270</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>19</v>
+      <c r="A18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1310</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1390</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>18</v>
+      <c r="G18" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1310</v>
-      </c>
-      <c r="C19" s="19">
-        <v>1390</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1210</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1299</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B20" s="10">
-        <v>1210</v>
+        <v>1290</v>
       </c>
       <c r="C20" s="10">
-        <v>1299</v>
+        <v>1370</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3470,22 +3467,22 @@
         <v>91</v>
       </c>
       <c r="B21" s="10">
-        <v>1290</v>
+        <v>1240</v>
       </c>
       <c r="C21" s="10">
-        <v>1370</v>
+        <v>1330</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="8">
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3493,142 +3490,142 @@
         <v>92</v>
       </c>
       <c r="B22" s="10">
-        <v>1240</v>
+        <v>1290</v>
       </c>
       <c r="C22" s="10">
-        <v>1330</v>
+        <v>1370</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="B23" s="10">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="C23" s="10">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B24" s="10">
-        <v>1280</v>
+        <v>1320</v>
       </c>
       <c r="C24" s="10">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="A25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="14">
         <v>1320</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="14">
         <v>1400</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="D25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="16">
         <v>0</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>18</v>
+      <c r="G25" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="14">
-        <v>1320</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1400</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1410</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1499</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>18</v>
+      <c r="G26" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B27" s="10">
-        <v>1410</v>
+        <v>1460</v>
       </c>
       <c r="C27" s="10">
-        <v>1499</v>
+        <v>1550</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B28" s="10">
         <v>1460</v>
@@ -3637,16 +3634,16 @@
         <v>1550</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3654,22 +3651,22 @@
         <v>95</v>
       </c>
       <c r="B29" s="10">
-        <v>1460</v>
+        <v>1490</v>
       </c>
       <c r="C29" s="10">
-        <v>1550</v>
+        <v>1580</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3677,68 +3674,68 @@
         <v>96</v>
       </c>
       <c r="B30" s="10">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="C30" s="10">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B31" s="10">
-        <v>1470</v>
+        <v>1340</v>
       </c>
       <c r="C31" s="10">
-        <v>1570</v>
+        <v>1420</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1340</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1420</v>
+        <v>77</v>
+      </c>
+      <c r="B32" s="19">
+        <v>7430</v>
+      </c>
+      <c r="C32" s="19">
+        <v>7990</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -3746,91 +3743,91 @@
         <v>78</v>
       </c>
       <c r="B33" s="19">
-        <v>7430</v>
+        <v>7530</v>
       </c>
       <c r="C33" s="19">
         <v>7990</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="19">
-        <v>7530</v>
-      </c>
-      <c r="C34" s="19">
-        <v>7990</v>
+        <v>85</v>
+      </c>
+      <c r="B34" s="10">
+        <v>5170</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5490</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B35" s="10">
-        <v>5170</v>
+        <v>5650</v>
       </c>
       <c r="C35" s="10">
-        <v>5490</v>
+        <v>5990</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B36" s="10">
-        <v>5650</v>
+        <v>5600</v>
       </c>
       <c r="C36" s="10">
         <v>5990</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3838,111 +3835,111 @@
         <v>87</v>
       </c>
       <c r="B37" s="10">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="C37" s="10">
-        <v>5990</v>
+        <v>6990</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B38" s="10">
-        <v>6500</v>
+        <v>6580</v>
       </c>
       <c r="C38" s="10">
         <v>6990</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B39" s="10">
-        <v>6580</v>
+        <v>7070</v>
       </c>
       <c r="C39" s="10">
-        <v>6990</v>
+        <v>7499</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B40" s="10">
-        <v>7070</v>
+        <v>6570</v>
       </c>
       <c r="C40" s="10">
-        <v>7499</v>
+        <v>6990</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B41" s="10">
-        <v>6570</v>
+        <v>3640</v>
       </c>
       <c r="C41" s="10">
-        <v>6990</v>
+        <v>3890</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>39</v>
@@ -3950,93 +3947,93 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B42" s="10">
-        <v>3640</v>
+        <v>6100</v>
       </c>
       <c r="C42" s="10">
-        <v>3890</v>
+        <v>6490</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B43" s="10">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="C43" s="10">
-        <v>6490</v>
+        <v>6590</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B44" s="10">
-        <v>6200</v>
+        <v>7430</v>
       </c>
       <c r="C44" s="10">
-        <v>6590</v>
+        <v>7990</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="10">
-        <v>7430</v>
-      </c>
-      <c r="C45" s="10">
-        <v>7990</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B45" s="9">
+        <v>9300</v>
+      </c>
+      <c r="C45" s="9">
+        <v>9790</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="F45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4045,229 +4042,229 @@
         <v>99</v>
       </c>
       <c r="B46" s="9">
-        <v>9300</v>
+        <v>10130</v>
       </c>
       <c r="C46" s="9">
-        <v>9790</v>
+        <v>10890</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="9">
-        <v>10130</v>
-      </c>
-      <c r="C47" s="9">
-        <v>10890</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="B47" s="10">
+        <v>7900</v>
+      </c>
+      <c r="C47" s="10">
+        <v>8390</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="10">
-        <v>7900</v>
-      </c>
-      <c r="C48" s="10">
-        <v>8390</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="B48" s="9">
+        <v>7980</v>
+      </c>
+      <c r="C48" s="9">
+        <v>8590</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>63</v>
+      <c r="F48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="9">
-        <v>7980</v>
-      </c>
-      <c r="C49" s="9">
-        <v>8590</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="B49" s="10">
+        <v>8850</v>
+      </c>
+      <c r="C49" s="10">
+        <v>9390</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>47</v>
+      <c r="F49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="10">
-        <v>8850</v>
-      </c>
-      <c r="C50" s="10">
-        <v>9390</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>54</v>
+      <c r="A50" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="9">
+        <v>9290</v>
+      </c>
+      <c r="C50" s="9">
+        <v>9990</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="9">
-        <v>9290</v>
+        <v>10230</v>
       </c>
       <c r="C51" s="9">
-        <v>9990</v>
+        <v>10990</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="9">
-        <v>10230</v>
-      </c>
-      <c r="C52" s="9">
-        <v>10990</v>
+        <v>119</v>
+      </c>
+      <c r="B52" s="5">
+        <v>9290</v>
+      </c>
+      <c r="C52" s="5">
+        <v>9990</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="5">
-        <v>9290</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="A53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="10">
+        <v>9400</v>
+      </c>
+      <c r="C53" s="10">
         <v>9990</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>49</v>
+      <c r="D53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B54" s="10">
-        <v>9400</v>
+        <v>9880</v>
       </c>
       <c r="C54" s="10">
-        <v>9990</v>
+        <v>10490</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B55" s="10">
-        <v>9880</v>
+        <v>10350</v>
       </c>
       <c r="C55" s="10">
-        <v>10490</v>
+        <v>10990</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F55" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4275,75 +4272,52 @@
         <v>115</v>
       </c>
       <c r="B56" s="10">
-        <v>10350</v>
+        <v>14170</v>
       </c>
       <c r="C56" s="10">
-        <v>10990</v>
+        <v>14990</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F56" s="8" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="10">
-        <v>14170</v>
-      </c>
-      <c r="C57" s="10">
-        <v>14990</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H58" s="17"/>
+      <c r="H57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A58" numberStoredAsText="1"/>
+    <ignoredError sqref="A57" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/2022/Price List/Symphony Price List  06.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  06.07.2022.xlsx
@@ -388,7 +388,7 @@
     <t xml:space="preserve">  Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (16.07.2022)</t>
+    <t>Symphony Mobile Price List (20.07.2022)</t>
   </si>
 </sst>
 </file>
@@ -3010,8 +3010,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/2022/Price List/Symphony Price List  06.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  06.07.2022.xlsx
@@ -3011,7 +3011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/2022/Price List/Symphony Price List  06.07.2022.xlsx
+++ b/2022/Price List/Symphony Price List  06.07.2022.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Updated!$A$3:$I$47</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="136">
   <si>
     <t>Model Name</t>
   </si>
@@ -238,9 +239,6 @@
     <t>8MP+2MP+8MP</t>
   </si>
   <si>
-    <t>Z42</t>
-  </si>
-  <si>
     <t>13MP+2MP+2MP+8MP</t>
   </si>
   <si>
@@ -361,9 +359,6 @@
     <t>2650mAh</t>
   </si>
   <si>
-    <t>Z55_4GB</t>
-  </si>
-  <si>
     <t>Helio30</t>
   </si>
   <si>
@@ -388,7 +383,49 @@
     <t xml:space="preserve">  Komola Super Market, Alaipur, Natore</t>
   </si>
   <si>
-    <t>Symphony Mobile Price List (20.07.2022)</t>
+    <t>Z42 Pro (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>Symphony Mobile Price List (24.07.2022)</t>
+  </si>
+  <si>
+    <t>Z42 (3GB+32GB)</t>
+  </si>
+  <si>
+    <t>Z55 (4GB+64GB)</t>
+  </si>
+  <si>
+    <t>New Price</t>
+  </si>
+  <si>
+    <t>Old Price</t>
+  </si>
+  <si>
+    <t>Symphony Smartphone Price Increase</t>
+  </si>
+  <si>
+    <t>RP= 9,400</t>
+  </si>
+  <si>
+    <t>CP= 9,990</t>
+  </si>
+  <si>
+    <t>RP= 10,080</t>
+  </si>
+  <si>
+    <t>CP= 10,699</t>
+  </si>
+  <si>
+    <t>CP= 11,999</t>
+  </si>
+  <si>
+    <t>RP= 11,300</t>
+  </si>
+  <si>
+    <t>RP= 10,350</t>
+  </si>
+  <si>
+    <t>CP= 10,990</t>
   </si>
 </sst>
 </file>
@@ -399,7 +436,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +502,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -504,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -531,8 +591,146 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -541,7 +739,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -552,20 +752,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -576,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,9 +816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,23 +837,69 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,13 +925,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230150</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>250527</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -717,8 +949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371476" y="12363450"/>
-          <a:ext cx="5726074" cy="231477"/>
+          <a:off x="371476" y="12592050"/>
+          <a:ext cx="5373649" cy="231477"/>
           <a:chOff x="253" y="249"/>
           <a:chExt cx="230" cy="258"/>
         </a:xfrm>
@@ -738,7 +970,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="354" y="292"/>
+            <a:off x="357" y="292"/>
             <a:ext cx="7" cy="176"/>
           </a:xfrm>
           <a:custGeom>
@@ -3007,46 +3239,45 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3121,10 +3352,10 @@
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>970</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1050</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -3142,12 +3373,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="19">
+        <v>78</v>
+      </c>
+      <c r="B7" s="18">
         <v>1000</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1070</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -3211,7 +3442,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="10">
         <v>1130</v>
@@ -3280,7 +3511,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="10">
         <v>1270</v>
@@ -3303,7 +3534,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="10">
         <v>1500</v>
@@ -3326,7 +3557,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="10">
         <v>1190</v>
@@ -3349,7 +3580,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="10">
         <v>1190</v>
@@ -3371,36 +3602,36 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>1200</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>1270</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="19">
+        <v>88</v>
+      </c>
+      <c r="B18" s="18">
         <v>1310</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>1390</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3441,7 +3672,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="10">
         <v>1290</v>
@@ -3464,7 +3695,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="10">
         <v>1240</v>
@@ -3487,7 +3718,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="10">
         <v>1290</v>
@@ -3533,7 +3764,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="10">
         <v>1320</v>
@@ -3556,7 +3787,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="14">
         <v>1320</v>
@@ -3602,7 +3833,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="10">
         <v>1460</v>
@@ -3614,7 +3845,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -3625,7 +3856,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="10">
         <v>1460</v>
@@ -3648,7 +3879,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="10">
         <v>1490</v>
@@ -3671,7 +3902,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="10">
         <v>1470</v>
@@ -3717,12 +3948,12 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="19">
+        <v>76</v>
+      </c>
+      <c r="B32" s="18">
         <v>7430</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>7990</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -3740,12 +3971,12 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="19">
+        <v>77</v>
+      </c>
+      <c r="B33" s="18">
         <v>7530</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>7990</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3763,7 +3994,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10">
         <v>5170</v>
@@ -3786,7 +4017,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="10">
         <v>5650</v>
@@ -3801,7 +4032,7 @@
         <v>26</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>39</v>
@@ -3809,7 +4040,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="10">
         <v>5600</v>
@@ -3832,7 +4063,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="10">
         <v>6500</v>
@@ -3855,7 +4086,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="10">
         <v>6580</v>
@@ -3901,7 +4132,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="10">
         <v>6570</v>
@@ -3924,7 +4155,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="10">
         <v>3640</v>
@@ -3970,7 +4201,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="10">
         <v>6200</v>
@@ -3982,7 +4213,7 @@
         <v>33</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>56</v>
@@ -3993,7 +4224,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="10">
         <v>7430</v>
@@ -4016,7 +4247,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="9">
         <v>9300</v>
@@ -4039,7 +4270,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="9">
         <v>10130</v>
@@ -4062,7 +4293,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="10">
         <v>7900</v>
@@ -4085,7 +4316,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="9">
         <v>7980</v>
@@ -4100,7 +4331,7 @@
         <v>35</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>46</v>
@@ -4108,7 +4339,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="10">
         <v>8850</v>
@@ -4131,7 +4362,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" s="9">
         <v>9290</v>
@@ -4143,7 +4374,7 @@
         <v>49</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>60</v>
@@ -4154,7 +4385,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="9">
         <v>10230</v>
@@ -4166,7 +4397,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>61</v>
@@ -4177,7 +4408,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="5">
         <v>9290</v>
@@ -4199,60 +4430,60 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="14">
+        <v>10080</v>
+      </c>
+      <c r="C53" s="14">
+        <v>10699</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="10">
-        <v>9400</v>
-      </c>
-      <c r="C53" s="10">
-        <v>9990</v>
-      </c>
-      <c r="D53" s="7" t="s">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="14">
+        <v>11300</v>
+      </c>
+      <c r="C54" s="14">
+        <v>11999</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="10">
-        <v>9880</v>
-      </c>
-      <c r="C54" s="10">
-        <v>10490</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>68</v>
+      <c r="G54" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B55" s="10">
-        <v>10350</v>
+        <v>9880</v>
       </c>
       <c r="C55" s="10">
-        <v>10990</v>
+        <v>10490</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>34</v>
@@ -4264,61 +4495,189 @@
         <v>61</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="14">
+        <v>11300</v>
+      </c>
+      <c r="C56" s="14">
+        <v>11990</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="10">
+    </row>
+    <row r="57" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="41">
         <v>14170</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C57" s="41">
         <v>14990</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E57" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="F57" s="43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="26" t="s">
+      <c r="G57" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="17"/>
+      <c r="H58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A57" numberStoredAsText="1"/>
+    <ignoredError sqref="A58" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="5:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="5:6" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E5" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E6" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E7" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+    </row>
+    <row r="9" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="5:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E10" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E11" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E12" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>